--- a/StructureDefinition-stroke-diagnosis-condition-profile.xlsx
+++ b/StructureDefinition-stroke-diagnosis-condition-profile.xlsx
@@ -87,7 +87,18 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Defines a Condition profile constrained to represent the definitive diagnosis of the current stroke event during the indexed encounter. The profile fixes category to encounter-diagnosis, binds code (required) to StrokeDiagnosisVS, and prohibits onset[x] to avoid ambiguity with symptom-onset capture via dedicated extensions. Use this profile for final/confirmed stroke diagnoses recorded at discharge or after diagnostic workup; do not use it for history-of conditions, screening findings, or provisional ‘rule-out’ statements. Optional extensions capture hemorrhagic bleeding reason, ischemic etiology, and structured onset date/time when clinically known.</t>
+    <t xml:space="preserve">Profile representing the **definitive diagnosis of the current/index stroke event** during the linked encounter.
+**Primary use-case**
+- Use for final/confirmed stroke diagnoses recorded during the index hospitalization/encounter (e.g., at discharge or after diagnostic workup).
+**Key constraints**
+- `Condition.category` is fixed to `encounter-diagnosis` to indicate this is the encounter’s diagnosis, not a general problem list item.
+- `Condition.code` is required and bound (required) to StrokeDiagnosisVS.
+- `Condition.onset[x]` is prohibited to avoid ambiguity: symptom onset is captured using dedicated onset extensions (date/time).
+**Supported structured enrichments**
+- `extension[bleedingReason]`: for hemorrhagic stroke bleeding cause (aneurysm, malformation, other/undetermined).
+- `extension[ischemicEtiology]`: for ischemic stroke etiology classification.
+- `extension[onsetDate]` and `extension[onsetTime]`: structured symptom onset capture.
+</t>
   </si>
   <si>
     <t>Purpose</t>
@@ -482,7 +493,14 @@
     <t>Hemorrhagic Stroke – Bleeding Reason</t>
   </si>
   <si>
-    <t>Captures, as a CodeableConcept bound (required) to HemorrhagicStrokeBleedingReasonVS, the identified cause of intracranial bleeding in hemorrhagic stroke (e.g., aneurysm, vascular malformation, other). Use when coding a definitive hemorrhagic stroke Condition to support analytics and decision support; do not use for non-hemorrhagic etiologies or when the cause is unknown/undetermined.</t>
+    <t>Extension capturing the **identified cause of intracranial bleeding** in a hemorrhagic stroke.
+**Primary use-case**
+- Attach to a definitive hemorrhagic stroke Condition (`StrokeDiagnosisConditionProfile`) to support:
+  - etiologic stratification (aneurysm vs vascular malformation vs other),
+  - analytics and registry reporting,
+  - targeted clinical decision support pathways.
+**FHIR placement**
+- `Condition.extension[bleedingReason].valueCodeableConcept` (required binding to HemorrhagicStrokeBleedingReasonVS).</t>
   </si>
   <si>
     <t>Condition.extension:ischemicEtiology</t>
@@ -498,7 +516,17 @@
     <t>Ischemic Stroke – Etiology</t>
   </si>
   <si>
-    <t>Records the determined ischemic stroke etiology as a CodeableConcept bound (required) to StrokeEtiologyVS (e.g., cardioembolic, large artery atherosclerosis, lacunar, cryptogenic). Apply to definitive ischemic stroke Conditions after diagnostic workup; avoid use for hemorrhagic strokes or provisional hypotheses not yet established.</t>
+    <t>Extension capturing the **determined ischemic stroke etiology classification**.
+**Primary use-case**
+- Attach to a definitive ischemic stroke Condition (`StrokeDiagnosisConditionProfile`) to support:
+  - etiologic subgroup analytics (cardioembolic vs lacunar vs cryptogenic, etc.),
+  - pathway decision support (e.g., prolonged rhythm monitoring for cryptogenic stroke),
+**When to use**
+- Use after etiologic workup when a classification is assigned.
+- Do not use for hemorrhagic stroke diagnoses.
+- If the etiology remains unknown/undetermined, either omit the extension or use the “Undetermined” code included in StrokeEtiologyVS.
+**FHIR placement**
+- `Condition.extension[ischemicEtiology].valueCodeableConcept` (required binding to StrokeEtiologyVS).</t>
   </si>
   <si>
     <t>Condition.extension:onsetDate</t>
@@ -511,10 +539,19 @@
 </t>
   </si>
   <si>
-    <t>Stroke Onset Date</t>
-  </si>
-  <si>
-    <t>Captures the calendar date (value[x] = date) of symptom onset for the indexed stroke event when known, enabling calculation of onset-to-door metrics and adherence to time-sensitive pathways. Use alongside OnsetTimeExt when hour/minute precision is available; omit if onset is unknown or inapplicable.</t>
+    <t>Stroke Symptom Onset Date Extension</t>
+  </si>
+  <si>
+    <t>Extension capturing the **calendar date** of symptom onset for the index stroke event.
+**Primary use-cases**
+- Compute onset-to-door and onset-to-treatment metrics when combined with encounter/treatment timestamps.
+- Support time-sensitive eligibility pathways when onset is known at least to the day.
+**When to use**
+- Use when onset date is known with reasonable confidence.
+- Use alongside `OnsetTimeExt` when time-of-day precision is available.
+- Omit if onset is unknown, only broadly estimated, or not applicable (e.g., certain in-hospital events may use different timing constructs).
+**FHIR placement**
+- `Condition.extension[onsetDate].valueDate`</t>
   </si>
   <si>
     <t>Condition.extension:onsetTime</t>
@@ -527,10 +564,20 @@
 </t>
   </si>
   <si>
-    <t>Stroke Onset Time</t>
-  </si>
-  <si>
-    <t>Captures the clock time (value[x] = time) of symptom onset for the indexed stroke event when available, complementing OnsetDateExt to support precise onset-to-treatment intervals. Use local time of the clinical setting; omit if time is unknown or estimated beyond acceptable precision.</t>
+    <t>Stroke Symptom Onset Time Extension</t>
+  </si>
+  <si>
+    <t>Extension capturing the **clock time** of symptom onset for the index stroke event.
+**Primary use-cases**
+- Enable precise onset-to-treatment intervals (e.g., onset-to-needle, onset-to-groin puncture).
+- Improve accuracy of eligibility assessments in time-window–dependent interventions.
+**When to use**
+- Use when onset time is known with sufficient precision for clinical use.
+- Omit if time is unknown or too uncertain.
+**FHIR placement**
+- `Condition.extension[onsetTime].valueTime`
+**Implementation note**
+- If `OnsetTimeExt` is present, `OnsetDateExt` should generally also be present (enforced as a warning invariant below).</t>
   </si>
   <si>
     <t>Condition.modifierExtension</t>

--- a/StructureDefinition-stroke-diagnosis-condition-profile.xlsx
+++ b/StructureDefinition-stroke-diagnosis-condition-profile.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.0</t>
+    <t>1.0.0</t>
   </si>
   <si>
     <t>Name</t>
